--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_rn.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_rn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044E3334-F373-406E-AECA-673025EDBB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005594B-534A-4C47-9897-8D7B814C0CFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1031,16 +1031,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1064,9 +1058,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,21 +1365,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:D204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>331</v>
       </c>
@@ -1400,7 +1393,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2400109</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2400208</v>
       </c>
@@ -1422,7 +1415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2400307</v>
       </c>
@@ -1433,7 +1426,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2400406</v>
       </c>
@@ -1444,7 +1437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2400505</v>
       </c>
@@ -1455,7 +1448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2400604</v>
       </c>
@@ -1466,7 +1459,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2400703</v>
       </c>
@@ -1477,7 +1470,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2400802</v>
       </c>
@@ -1488,7 +1481,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2400901</v>
       </c>
@@ -1499,7 +1492,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2401008</v>
       </c>
@@ -1510,7 +1503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2401107</v>
       </c>
@@ -1521,7 +1514,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2401206</v>
       </c>
@@ -1532,7 +1525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2401305</v>
       </c>
@@ -1543,7 +1536,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2401404</v>
       </c>
@@ -1554,7 +1547,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2401453</v>
       </c>
@@ -1565,7 +1558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2401503</v>
       </c>
@@ -1576,7 +1569,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2401602</v>
       </c>
@@ -1587,7 +1580,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2401651</v>
       </c>
@@ -1598,7 +1591,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2401701</v>
       </c>
@@ -1609,7 +1602,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2401800</v>
       </c>
@@ -1620,7 +1613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2401859</v>
       </c>
@@ -1631,7 +1624,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2401909</v>
       </c>
@@ -1642,7 +1635,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2402006</v>
       </c>
@@ -1653,7 +1646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2402105</v>
       </c>
@@ -1664,7 +1657,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2402204</v>
       </c>
@@ -1675,7 +1668,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2402303</v>
       </c>
@@ -1686,7 +1679,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2402402</v>
       </c>
@@ -1697,7 +1690,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2402501</v>
       </c>
@@ -1708,7 +1701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2402600</v>
       </c>
@@ -1719,7 +1712,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2402709</v>
       </c>
@@ -1730,7 +1723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2402808</v>
       </c>
@@ -1741,7 +1734,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2402907</v>
       </c>
@@ -1752,7 +1745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2403004</v>
       </c>
@@ -1763,7 +1756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2403103</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2403202</v>
       </c>
@@ -1785,7 +1778,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2403251</v>
       </c>
@@ -1796,7 +1789,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2403301</v>
       </c>
@@ -1807,7 +1800,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2403400</v>
       </c>
@@ -1818,7 +1811,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2403509</v>
       </c>
@@ -1829,7 +1822,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2403608</v>
       </c>
@@ -1840,7 +1833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2403707</v>
       </c>
@@ -1851,7 +1844,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2403756</v>
       </c>
@@ -1862,7 +1855,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2403806</v>
       </c>
@@ -1873,7 +1866,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2403905</v>
       </c>
@@ -1884,7 +1877,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2404002</v>
       </c>
@@ -1895,7 +1888,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2404101</v>
       </c>
@@ -1906,7 +1899,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2404200</v>
       </c>
@@ -1917,7 +1910,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2404309</v>
       </c>
@@ -1928,7 +1921,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2404408</v>
       </c>
@@ -1939,7 +1932,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2404507</v>
       </c>
@@ -1950,7 +1943,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2404606</v>
       </c>
@@ -1961,7 +1954,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2404705</v>
       </c>
@@ -1972,7 +1965,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2404804</v>
       </c>
@@ -1983,7 +1976,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2404853</v>
       </c>
@@ -1994,7 +1987,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2404903</v>
       </c>
@@ -2005,7 +1998,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2405009</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2405108</v>
       </c>
@@ -2027,7 +2020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2405207</v>
       </c>
@@ -2038,7 +2031,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2405306</v>
       </c>
@@ -2049,7 +2042,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2405405</v>
       </c>
@@ -2060,7 +2053,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2405504</v>
       </c>
@@ -2071,7 +2064,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2405603</v>
       </c>
@@ -2082,7 +2075,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2405702</v>
       </c>
@@ -2093,7 +2086,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2405801</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2405900</v>
       </c>
@@ -2115,7 +2108,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2406007</v>
       </c>
@@ -2126,7 +2119,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2406106</v>
       </c>
@@ -2137,7 +2130,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2406155</v>
       </c>
@@ -2148,7 +2141,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2406205</v>
       </c>
@@ -2159,7 +2152,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2406304</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2406403</v>
       </c>
@@ -2181,7 +2174,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2406502</v>
       </c>
@@ -2192,7 +2185,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2406601</v>
       </c>
@@ -2203,7 +2196,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2406700</v>
       </c>
@@ -2214,7 +2207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2406809</v>
       </c>
@@ -2225,7 +2218,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2406908</v>
       </c>
@@ -2236,7 +2229,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2407005</v>
       </c>
@@ -2247,7 +2240,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2407104</v>
       </c>
@@ -2258,7 +2251,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2407203</v>
       </c>
@@ -2269,7 +2262,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2407252</v>
       </c>
@@ -2280,7 +2273,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2407302</v>
       </c>
@@ -2291,7 +2284,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2407401</v>
       </c>
@@ -2302,7 +2295,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2407500</v>
       </c>
@@ -2313,7 +2306,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2407609</v>
       </c>
@@ -2324,7 +2317,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2407708</v>
       </c>
@@ -2335,7 +2328,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2407807</v>
       </c>
@@ -2346,7 +2339,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2407906</v>
       </c>
@@ -2357,7 +2350,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2408003</v>
       </c>
@@ -2368,7 +2361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2408102</v>
       </c>
@@ -2379,7 +2372,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2408201</v>
       </c>
@@ -2390,7 +2383,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2408300</v>
       </c>
@@ -2401,7 +2394,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2408409</v>
       </c>
@@ -2412,7 +2405,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2408508</v>
       </c>
@@ -2423,7 +2416,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2408607</v>
       </c>
@@ -2434,7 +2427,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2408706</v>
       </c>
@@ -2445,7 +2438,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2408805</v>
       </c>
@@ -2456,7 +2449,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2408904</v>
       </c>
@@ -2467,7 +2460,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2408953</v>
       </c>
@@ -2478,7 +2471,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2409100</v>
       </c>
@@ -2489,7 +2482,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2409209</v>
       </c>
@@ -2500,7 +2493,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2409308</v>
       </c>
@@ -2511,7 +2504,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2409332</v>
       </c>
@@ -2522,7 +2515,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2409407</v>
       </c>
@@ -2533,7 +2526,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2409506</v>
       </c>
@@ -2544,7 +2537,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2409605</v>
       </c>
@@ -2555,7 +2548,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2409704</v>
       </c>
@@ -2566,7 +2559,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2409803</v>
       </c>
@@ -2577,7 +2570,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2409902</v>
       </c>
@@ -2588,7 +2581,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2410009</v>
       </c>
@@ -2599,7 +2592,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2410108</v>
       </c>
@@ -2610,7 +2603,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2410207</v>
       </c>
@@ -2621,7 +2614,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2410256</v>
       </c>
@@ -2632,7 +2625,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2410306</v>
       </c>
@@ -2643,7 +2636,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2410405</v>
       </c>
@@ -2654,7 +2647,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2410504</v>
       </c>
@@ -2665,7 +2658,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2410603</v>
       </c>
@@ -2676,7 +2669,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2410702</v>
       </c>
@@ -2687,7 +2680,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2410801</v>
       </c>
@@ -2698,7 +2691,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2410900</v>
       </c>
@@ -2709,7 +2702,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2411007</v>
       </c>
@@ -2720,7 +2713,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2411056</v>
       </c>
@@ -2731,7 +2724,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2411106</v>
       </c>
@@ -2742,7 +2735,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2411205</v>
       </c>
@@ -2753,7 +2746,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2411403</v>
       </c>
@@ -2764,7 +2757,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2411429</v>
       </c>
@@ -2775,7 +2768,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2411502</v>
       </c>
@@ -2786,7 +2779,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2411601</v>
       </c>
@@ -2797,7 +2790,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2411700</v>
       </c>
@@ -2808,7 +2801,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2411809</v>
       </c>
@@ -2819,7 +2812,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2411908</v>
       </c>
@@ -2830,7 +2823,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2412005</v>
       </c>
@@ -2841,7 +2834,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2412104</v>
       </c>
@@ -2852,7 +2845,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2412203</v>
       </c>
@@ -2863,7 +2856,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2412302</v>
       </c>
@@ -2874,7 +2867,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2412401</v>
       </c>
@@ -2885,7 +2878,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2412500</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2412559</v>
       </c>
@@ -2907,7 +2900,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2412609</v>
       </c>
@@ -2918,7 +2911,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2412708</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2412807</v>
       </c>
@@ -2940,7 +2933,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2412906</v>
       </c>
@@ -2951,7 +2944,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2413003</v>
       </c>
@@ -2962,7 +2955,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2413102</v>
       </c>
@@ -2973,7 +2966,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2413201</v>
       </c>
@@ -2984,7 +2977,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2413300</v>
       </c>
@@ -2995,7 +2988,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2413359</v>
       </c>
@@ -3006,7 +2999,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2413409</v>
       </c>
@@ -3017,7 +3010,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2413508</v>
       </c>
@@ -3028,7 +3021,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2413557</v>
       </c>
@@ -3039,7 +3032,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2413607</v>
       </c>
@@ -3050,7 +3043,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2413706</v>
       </c>
@@ -3061,7 +3054,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2413805</v>
       </c>
@@ -3072,7 +3065,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2413904</v>
       </c>
@@ -3083,7 +3076,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2414001</v>
       </c>
@@ -3094,7 +3087,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2414100</v>
       </c>
@@ -3105,7 +3098,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2414159</v>
       </c>
@@ -3116,7 +3109,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2414209</v>
       </c>
@@ -3127,7 +3120,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2414308</v>
       </c>
@@ -3138,7 +3131,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2414407</v>
       </c>
@@ -3149,7 +3142,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2414456</v>
       </c>
@@ -3160,7 +3153,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2414506</v>
       </c>
@@ -3171,7 +3164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2414605</v>
       </c>
@@ -3182,7 +3175,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2414704</v>
       </c>
@@ -3193,7 +3186,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2414753</v>
       </c>
@@ -3204,7 +3197,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2414803</v>
       </c>
@@ -3215,7 +3208,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2414902</v>
       </c>
@@ -3226,7 +3219,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2415008</v>
       </c>
@@ -3236,9 +3229,6 @@
       <c r="C168" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
